--- a/data/trans_orig/P14C33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C33-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9178CB13-F6D0-4520-91AB-2F28B1C72E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85FA2E3E-3583-4139-AB97-9F4AF354779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5F84651-3A81-4B56-A39F-1F689FD66108}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91C82DA9-2C7E-4D77-8774-FD950492A4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCAFC5E-0F18-4083-9329-47E780E8F0CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89388428-1E68-40A4-9A27-2142BC16BD5A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C33-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85FA2E3E-3583-4139-AB97-9F4AF354779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F610CD7-75B3-4B13-9633-A0F649261330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91C82DA9-2C7E-4D77-8774-FD950492A4EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F579C81-0BFB-490C-A194-B952AFAF60C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
   <si>
-    <t>Población según el tiempo de diagnóstico del esterilidad en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población según el tiempo de diagnóstico del esterilidad en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -113,7 +113,7 @@
     <t>78,19%</t>
   </si>
   <si>
-    <t>19,22%</t>
+    <t>19,21%</t>
   </si>
   <si>
     <t>37,3%</t>
@@ -122,7 +122,7 @@
     <t>21,81%</t>
   </si>
   <si>
-    <t>80,78%</t>
+    <t>80,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89388428-1E68-40A4-9A27-2142BC16BD5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545BB271-2822-4047-847F-E3A56B71D526}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
